--- a/SPPSApi/Doc/Template/FS1207_Sub2_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_Sub2_Import.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="80000" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -41,11 +41,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -409,7 +411,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
